--- a/onepice_count_v1.1.xlsx
+++ b/onepice_count_v1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangg\Documents\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangg\Documents\jupyternotebook\OnePice\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8E206-399E-4D8D-BCC4-6B728807F949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF106AFD-0146-41E1-A2FA-7A5A00D0078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2787,7 +2787,7 @@
   <dimension ref="A1:V269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5128,11 +5128,11 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="R39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>https://ordsearch.speedgabia.com/images/units/ord/icons/51.png?20210202132624</v>
+        <f>S39&amp;Q39&amp;T39</f>
+        <v>https://ordsearch.speedgabia.com/images/units/ord/icons/54.png?20210202132624</v>
       </c>
       <c r="S39" t="s">
         <v>757</v>
@@ -12127,11 +12127,11 @@
         <v>7</v>
       </c>
       <c r="Q155">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="R155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>https://ordsearch.speedgabia.com/images/units/ord/icons/161.png?20210202132624</v>
+        <v>https://ordsearch.speedgabia.com/images/units/ord/icons/165.png?20210202132624</v>
       </c>
       <c r="S155" t="s">
         <v>757</v>
@@ -12187,11 +12187,11 @@
         <v>3</v>
       </c>
       <c r="Q156">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>https://ordsearch.speedgabia.com/images/units/ord/icons/165.png?20210202132624</v>
+        <v>https://ordsearch.speedgabia.com/images/units/ord/icons/161.png?20210202132624</v>
       </c>
       <c r="S156" t="s">
         <v>757</v>

--- a/onepice_count_v1.1.xlsx
+++ b/onepice_count_v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangg\Documents\jupyternotebook\OnePice\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF106AFD-0146-41E1-A2FA-7A5A00D0078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C1ACC-FE5D-4C3E-BF10-CDB4EFCFEBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="924">
   <si>
     <t>등급</t>
   </si>
@@ -777,9 +777,6 @@
     <t>['캡틴 키드 (희귀함)', '와이퍼 (희귀함)', 'X-드레이크 (희귀함)', '목재x3 (기타)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 12']</t>
-  </si>
-  <si>
     <t>['공격력 버프 (공증)광폭화 특화 (광폭화)범위 적 전체체력 %데미지 (범퍼-전퍼)보스특화 (보스)이동속도 감소 (이감)오라 형식 -30']</t>
   </si>
   <si>
@@ -804,9 +801,6 @@
     <t>['브룩 음악가 (희귀함)', '바르토로메오 (희귀함)', '시류 (희귀함)', '목재x3 (기타)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 10']</t>
-  </si>
-  <si>
     <t>['공격속도 버프 (공속)범위스턴 (스턴)스플래시 데미지 (스플뎀)']</t>
   </si>
   <si>
@@ -858,9 +852,6 @@
     <t>['마인 오즈 (희귀함)', '류마 (희귀함)', '압살롬 (특별함)', '루피 기어써드 (희귀함)', '목재x3 (기타)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 29']</t>
-  </si>
-  <si>
     <t>['공중이동 (공중이동)광폭화 특화 (광폭화)단일 적 스턴 (단일스턴)보스특화 (보스)']</t>
   </si>
   <si>
@@ -990,9 +981,6 @@
     <t>['조로 현상금 사냥꾼 (희귀함)', '페로나 네거티브프린세스 (희귀함)', '미호크 (희귀함)', '목재x3 (기타)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 24']</t>
-  </si>
-  <si>
     <t>['단일 적 전체체력 %데미지 (끝딜)보스특화 (보스)']</t>
   </si>
   <si>
@@ -1278,9 +1266,6 @@
     <t>['아카이누 (희귀함)', '반더데켄 (희귀함)', '킬러 (특별함)', '스쿼드 (특별함)', '아카이누조합(akainu)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 26']</t>
-  </si>
-  <si>
     <t>['광폭화 특화 (광폭화)단일 적 스턴 (단일스턴)보스특화 (보스)이동속도 감소 (이감)특수 발동(범위) 형식 -10']</t>
   </si>
   <si>
@@ -1332,9 +1317,6 @@
     <t>['킨에몬 (희귀함)', '조로 현상금 사냥꾼 (희귀함)', '키드 (특별함)', '키쿠조합(kiku)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 13']</t>
-  </si>
-  <si>
     <t>['캡틴 키드 (희귀함)', '헤르메포 (특별함)', '킬러 (특별함)', '바질 호킨스 (특별함)', '킬러조합(killer)']</t>
   </si>
   <si>
@@ -1497,9 +1479,6 @@
     <t>['히루루크 사망비석 (전설적인)', '바르토로메오 (전설적인)', '봉쿠레 (히든조합)', '확장팩 (기타)', '5,000골드 (기타)', '목재x5 (기타)', '(41라운드 이전에만 조합가능)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 20']</t>
-  </si>
-  <si>
     <t>['단일 적 스턴 (단일스턴)단일 적 전체체력 %데미지 (끝딜)범위 적 잃은체력 %데미지 (범퍼-잃퍼)범위 적 전체체력 %데미지 (범퍼-전퍼)보스특화 (보스)순간이동 (순간이동)']</t>
   </si>
   <si>
@@ -1566,9 +1545,6 @@
     <t>['크래커 (전설적인)', '상디 디아블잠브 (희귀함)', '루피 기어써드 (희귀함)', '카포네 갱 벳지 (특별함)', '30,000골드 (기타)', '목재x5 (기타)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 33']</t>
-  </si>
-  <si>
     <t>['광폭화 특화 (광폭화)단일 적 스턴 (단일스턴)방어력 감소 (방깍)오라 형식 -30보스특화 (보스)스플래시 데미지 (스플뎀)체력회복 (체젠)']</t>
   </si>
   <si>
@@ -1650,9 +1626,6 @@
     <t>['로브 루치 (전설적인)', '사보 (히든조합)', '로빈 오하라 (특별함)', '초월 쿠마 (초월함)', '검은정의를좇는하얀새(lucci tr)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 17']</t>
-  </si>
-  <si>
     <t>['광폭화 특화 (광폭화)단일 적 스턴 (단일스턴)단일 적 전체체력 %데미지 (끝딜)단일 적 현재체력 %데미지 (단일)순간이동 (순간이동)폭발형 데미지 증폭 (폭발형 증폭)']</t>
   </si>
   <si>
@@ -1752,9 +1725,6 @@
     <t>['히바리 (전설적인)', '아카이누 (히든조합)', '에이스 2번대대장 (특별함)', '루치 (특별함)', '초월 쿠마 (초월함)', '해군원수붉은개(akainu tr)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 31']</t>
-  </si>
-  <si>
     <t>['광폭화 특화 (광폭화)단일 적 스턴 (단일스턴)보스특화 (보스)이동속도 감소 (이감)특수 발동(범위) 형식 -12']</t>
   </si>
   <si>
@@ -1827,9 +1797,6 @@
     <t>['징베 (전설적인)', '라분 (전설적인)', '에이스 2번대대장 (특별함)', '초월 쿠마 (초월함)', '바다의협객(jinbe tr)']</t>
   </si>
   <si>
-    <t>['스토리로 좋아요 14']</t>
-  </si>
-  <si>
     <t>['공격속도 버프 (공속)단일 적 스턴 (단일스턴)마나회복 (마나젠)방어력 감소 (방깍)아머 브레이크 형식 최대 -75범위스턴 (스턴)스플래시 데미지 (스플뎀)아머브레이크 (암브)이동속도 감소 (이감)특수 발동(범위) 형식 -50']</t>
   </si>
   <si>
@@ -2089,9 +2056,6 @@
   </si>
   <si>
     <t>스코퍼 가반</t>
-  </si>
-  <si>
-    <t>['스토리로 좋아요 44']</t>
   </si>
   <si>
     <t>['광폭화 특화 (광폭화)단일 적 스턴 (단일스턴)단일 적 전체체력 %데미지 (끝딜)방어력 감소 (방깍)단일 타겟 형식 (일반 -60 / 보스 -70)보스특화 (보스)순간이동 (순간이동)']</t>
@@ -2388,6 +2352,477 @@
   </si>
   <si>
     <t>['샹크스 (전설적인)', '조로 사자의노래 (전설적인)', '레이쥬 (전설적인)', '목재x10 (기타)', '역전의강자(gaban im)']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 0', '마법데미지로 좋아요 17']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 0', '마법데미지로 좋아요 18']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 12', '물리데미지로 좋아요 1', '마법데미지로 좋아요 25']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 26', '마법데미지로 좋아요 7']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 10', '물리데미지로 좋아요 10', '마법데미지로 좋아요 11']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 3', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 22', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 0', '마법데미지로 좋아요 14']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 12', '물리데미지로 좋아요 1', '마법데미지로 좋아요 18']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 8', '마법데미지로 좋아요 18']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 29', '물리데미지로 좋아요 6', '마법데미지로 좋아요 14']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 37', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 4', '마법데미지로 좋아요 19']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 21', '마법데미지로 좋아요 10']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 6', '물리데미지로 좋아요 0', '마법데미지로 좋아요 25']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 6', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 19', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 6', '물리데미지로 좋아요 6', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 18', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 0', '마법데미지로 좋아요 18']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 17', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 22', '마법데미지로 좋아요 7']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 27', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 15', '물리데미지로 좋아요 22', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 1', '마법데미지로 좋아요 21']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 24', '물리데미지로 좋아요 2', '마법데미지로 좋아요 30']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 16', '물리데미지로 좋아요 15', '마법데미지로 좋아요 9']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 18', '물리데미지로 좋아요 24', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 4', '마법데미지로 좋아요 19']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 6', '물리데미지로 좋아요 5', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 21', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 17', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 13', '마법데미지로 좋아요 20']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 1', '마법데미지로 좋아요 17']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 9', '마법데미지로 좋아요 17']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 8', '물리데미지로 좋아요 17', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 15', '마법데미지로 좋아요 6']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 2', '마법데미지로 좋아요 6']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 7', '물리데미지로 좋아요 6', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 14', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 6', '물리데미지로 좋아요 19', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 14', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 20', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 0', '마법데미지로 좋아요 19']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 13', '마법데미지로 좋아요 11']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 3', '마법데미지로 좋아요 15']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 7', '마법데미지로 좋아요 9']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 1', '마법데미지로 좋아요 18']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 15', '물리데미지로 좋아요 29', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 19', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 9', '물리데미지로 좋아요 32', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 2', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 10', '물리데미지로 좋아요 1', '마법데미지로 좋아요 25']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 0', '마법데미지로 좋아요 8']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 8', '마법데미지로 좋아요 15']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 26', '물리데미지로 좋아요 2', '마법데미지로 좋아요 25']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 15', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 1', '마법데미지로 좋아요 14']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 20', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 13', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 13', '물리데미지로 좋아요 2', '마법데미지로 좋아요 24']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 20', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 2', '마법데미지로 좋아요 17']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 13', '물리데미지로 좋아요 14', '마법데미지로 좋아요 13']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 2', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 7', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 0', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 5', '마법데미지로 좋아요 7']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 7', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 0', '마법데미지로 좋아요 7']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 0', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 4', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 8', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 0', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 6', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 5', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 0', '마법데미지로 좋아요 3']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 5', '마법데미지로 좋아요 6']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 0', '마법데미지로 좋아요 12']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 0', '마법데미지로 좋아요 11']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 16', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 7', '물리데미지로 좋아요 0', '마법데미지로 좋아요 15']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 1', '마법데미지로 좋아요 3']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 2', '마법데미지로 좋아요 20']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 20', '물리데미지로 좋아요 1', '마법데미지로 좋아요 44']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 23', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 11', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 0', '마법데미지로 좋아요 18']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 4', '마법데미지로 좋아요 14']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 16', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 1', '마법데미지로 좋아요 26']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 33', '물리데미지로 좋아요 44', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 40', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 19', '마법데미지로 좋아요 3']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 3', '마법데미지로 좋아요 23']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 2', '마법데미지로 좋아요 42']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 46', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 38', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 2', '마법데미지로 좋아요 32']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 23', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 17', '물리데미지로 좋아요 1', '마법데미지로 좋아요 45']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 39', '마법데미지로 좋아요 10']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 30', '마법데미지로 좋아요 3']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 1', '마법데미지로 좋아요 29']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 50', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 12', '물리데미지로 좋아요 2', '마법데미지로 좋아요 39']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 0', '마법데미지로 좋아요 11']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 6', '물리데미지로 좋아요 3', '마법데미지로 좋아요 51']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 4', '마법데미지로 좋아요 35']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 10', '마법데미지로 좋아요 36']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 3', '마법데미지로 좋아요 22']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 31', '물리데미지로 좋아요 2', '마법데미지로 좋아요 45']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 32', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 20', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 73', '마법데미지로 좋아요 8']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 7', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 16', '마법데미지로 좋아요 3']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 22', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 14', '물리데미지로 좋아요 45', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 5', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 32', '마법데미지로 좋아요 0']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 10', '물리데미지로 좋아요 0', '마법데미지로 좋아요 14']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 1', '마법데미지로 좋아요 26']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 7', '물리데미지로 좋아요 0', '마법데미지로 좋아요 33']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 20', '물리데미지로 좋아요 32', '마법데미지로 좋아요 37']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 32', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 0', '마법데미지로 좋아요 15']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 29', '물리데미지로 좋아요 30', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 0', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 10', '물리데미지로 좋아요 0', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 0', '마법데미지로 좋아요 7']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 13', '물리데미지로 좋아요 17', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 17', '마법데미지로 좋아요 3']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 8', '마법데미지로 좋아요 11']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 11', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 3', '마법데미지로 좋아요 16']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 22', '물리데미지로 좋아요 54', '마법데미지로 좋아요 6']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 18', '물리데미지로 좋아요 1', '마법데미지로 좋아요 33']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 3', '물리데미지로 좋아요 22', '마법데미지로 좋아요 10']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 26', '마법데미지로 좋아요 6']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 9', '물리데미지로 좋아요 6', '마법데미지로 좋아요 26']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 0', '마법데미지로 좋아요 40']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 44', '물리데미지로 좋아요 41', '마법데미지로 좋아요 4']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 28', '마법데미지로 좋아요 39']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 2', '마법데미지로 좋아요 36']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 34', '마법데미지로 좋아요 5']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 8', '물리데미지로 좋아요 61', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 1', '물리데미지로 좋아요 17', '마법데미지로 좋아요 1']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 7', '물리데미지로 좋아요 2', '마법데미지로 좋아요 12']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 8', '마법데미지로 좋아요 37']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 2', '물리데미지로 좋아요 67', '마법데미지로 좋아요 6']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 4', '마법데미지로 좋아요 28']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 6', '물리데미지로 좋아요 2', '마법데미지로 좋아요 54']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 5', '물리데미지로 좋아요 9', '마법데미지로 좋아요 38']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 0', '물리데미지로 좋아요 10', '마법데미지로 좋아요 21']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 10', '물리데미지로 좋아요 47', '마법데미지로 좋아요 2']</t>
+  </si>
+  <si>
+    <t>['스토리로 좋아요 4', '물리데미지로 좋아요 52', '마법데미지로 좋아요 55']</t>
   </si>
 </sst>
 </file>
@@ -2787,14 +3222,14 @@
   <dimension ref="A1:V269"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="178.75" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="70.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.625" customWidth="1"/>
     <col min="6" max="6" width="121.5" customWidth="1"/>
     <col min="7" max="15" width="9.5" customWidth="1"/>
@@ -2852,57 +3287,57 @@
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B2" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="C2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O2" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2912,60 +3347,60 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/1.png?20210202132624</v>
       </c>
       <c r="S2" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T2" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="V2" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B3" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="C3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O3" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -2975,57 +3410,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/2.png?20210202132624</v>
       </c>
       <c r="S3" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T3" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B4" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="C4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O4" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -3035,57 +3470,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/3.png?20210202132624</v>
       </c>
       <c r="S4" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T4" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B5" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="C5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -3095,57 +3530,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/4.png?20210202132624</v>
       </c>
       <c r="S5" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T5" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B6" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="C6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O6" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -3155,57 +3590,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/5.png?20210202132624</v>
       </c>
       <c r="S6" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T6" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B7" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="C7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O7" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -3215,57 +3650,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/6.png?20210202132624</v>
       </c>
       <c r="S7" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T7" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B8" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O8" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -3275,57 +3710,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/9.png?20210202132624</v>
       </c>
       <c r="S8" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T8" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B9" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="C9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O9" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -3335,57 +3770,57 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/8.png?20210202132624</v>
       </c>
       <c r="S9" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T9" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="B10" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="C10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="E10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="F10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="G10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="H10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="I10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="J10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="K10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="L10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="N10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="O10" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="Q10">
         <v>7</v>
@@ -3395,10 +3830,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/7.png?20210202132624</v>
       </c>
       <c r="S10" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T10" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -3455,10 +3890,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/23.png?20210202132624</v>
       </c>
       <c r="S11" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T11" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -3515,10 +3950,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/29.png?20210202132624</v>
       </c>
       <c r="S12" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T12" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -3575,10 +4010,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/13.png?20210202132624</v>
       </c>
       <c r="S13" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T13" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -3635,10 +4070,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/12.png?20210202132624</v>
       </c>
       <c r="S14" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T14" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -3695,10 +4130,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/25.png?20210202132624</v>
       </c>
       <c r="S15" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T15" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -3755,10 +4190,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/14.png?20210202132624</v>
       </c>
       <c r="S16" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T16" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -3815,10 +4250,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/24.png?20210202132624</v>
       </c>
       <c r="S17" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T17" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -3875,10 +4310,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/30.png?20210202132624</v>
       </c>
       <c r="S18" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T18" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -3935,10 +4370,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/27.png?20210202132624</v>
       </c>
       <c r="S19" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T19" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -3995,10 +4430,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/28.png?20210202132624</v>
       </c>
       <c r="S20" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T20" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -4055,10 +4490,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/22.png?20210202132624</v>
       </c>
       <c r="S21" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T21" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -4115,10 +4550,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/20.png?20210202132624</v>
       </c>
       <c r="S22" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T22" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -4175,10 +4610,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/26.png?20210202132624</v>
       </c>
       <c r="S23" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T23" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -4235,10 +4670,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/53.png?20210202132624</v>
       </c>
       <c r="S24" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T24" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -4295,10 +4730,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/47.png?20210202132624</v>
       </c>
       <c r="S25" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T25" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -4355,10 +4790,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/38.png?20210202132624</v>
       </c>
       <c r="S26" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T26" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -4415,10 +4850,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/43.png?20210202132624</v>
       </c>
       <c r="S27" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T27" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -4475,10 +4910,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/48.png?20210202132624</v>
       </c>
       <c r="S28" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T28" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -4535,10 +4970,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/40.png?20210202132624</v>
       </c>
       <c r="S29" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T29" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -4546,7 +4981,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -4595,10 +5030,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/51.png?20210202132624</v>
       </c>
       <c r="S30" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T30" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -4655,10 +5090,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/60.png?20210202132624</v>
       </c>
       <c r="S31" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T31" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -4715,10 +5150,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/49.png?20210202132624</v>
       </c>
       <c r="S32" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T32" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -4775,10 +5210,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/45.png?20210202132624</v>
       </c>
       <c r="S33" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T33" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -4835,10 +5270,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/41.png?20210202132624</v>
       </c>
       <c r="S34" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T34" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -4895,10 +5330,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/58.png?20210202132624</v>
       </c>
       <c r="S35" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T35" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -4955,10 +5390,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/52.png?20210202132624</v>
       </c>
       <c r="S36" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T36" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -5015,10 +5450,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/62.png?20210202132624</v>
       </c>
       <c r="S37" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T37" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -5075,10 +5510,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/57.png?20210202132624</v>
       </c>
       <c r="S38" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T38" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -5135,10 +5570,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/54.png?20210202132624</v>
       </c>
       <c r="S39" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T39" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -5198,10 +5633,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/15.png?20210202132624</v>
       </c>
       <c r="S40" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T40" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -5258,10 +5693,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/33.png?20210202132624</v>
       </c>
       <c r="S41" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T41" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -5318,10 +5753,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/59.png?20210202132624</v>
       </c>
       <c r="S42" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T42" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -5378,10 +5813,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/36.png?20210202132624</v>
       </c>
       <c r="S43" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T43" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -5438,10 +5873,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/55.png?20210202132624</v>
       </c>
       <c r="S44" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T44" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -5449,7 +5884,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="C45" t="s">
         <v>101</v>
@@ -5498,10 +5933,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/44.png?20210202132624</v>
       </c>
       <c r="S45" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T45" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -5558,10 +5993,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/37.png?20210202132624</v>
       </c>
       <c r="S46" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T46" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -5618,10 +6053,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/61.png?20210202132624</v>
       </c>
       <c r="S47" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T47" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -5678,10 +6113,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/34.png?20210202132624</v>
       </c>
       <c r="S48" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T48" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -5738,10 +6173,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/35.png?20210202132624</v>
       </c>
       <c r="S49" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T49" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -5798,10 +6233,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/21.png?20210202132624</v>
       </c>
       <c r="S50" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T50" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -5858,10 +6293,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/56.png?20210202132624</v>
       </c>
       <c r="S51" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T51" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -5918,10 +6353,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/50.png?20210202132624</v>
       </c>
       <c r="S52" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T52" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -5978,10 +6413,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/42.png?20210202132624</v>
       </c>
       <c r="S53" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T53" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -6038,10 +6473,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/46.png?20210202132624</v>
       </c>
       <c r="S54" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T54" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -6098,10 +6533,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/32.png?20210202132624</v>
       </c>
       <c r="S55" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T55" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -6158,10 +6593,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/39.png?20210202132624</v>
       </c>
       <c r="S56" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T56" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -6218,10 +6653,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/274.png?20210202132624</v>
       </c>
       <c r="S57" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T57" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -6232,7 +6667,7 @@
         <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D58" t="s">
         <v>135</v>
@@ -6278,10 +6713,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/72.png?20210202132624</v>
       </c>
       <c r="S58" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T58" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -6338,10 +6773,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/80.png?20210202132624</v>
       </c>
       <c r="S59" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T59" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -6398,10 +6833,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/144.png?20210202132624</v>
       </c>
       <c r="S60" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T60" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -6458,10 +6893,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/89.png?20210202132624</v>
       </c>
       <c r="S61" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T61" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -6518,10 +6953,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/124.png?20210202132624</v>
       </c>
       <c r="S62" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T62" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -6578,10 +7013,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/81.png?20210202132624</v>
       </c>
       <c r="S63" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T63" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -6592,7 +7027,7 @@
         <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D64" t="s">
         <v>48</v>
@@ -6638,10 +7073,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/63.png?20210202132624</v>
       </c>
       <c r="S64" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T64" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -6698,10 +7133,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/85.png?20210202132624</v>
       </c>
       <c r="S65" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T65" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -6758,10 +7193,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/95.png?20210202132624</v>
       </c>
       <c r="S66" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T66" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -6818,10 +7253,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/73.png?20210202132624</v>
       </c>
       <c r="S67" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T67" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -6878,10 +7313,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/74.png?20210202132624</v>
       </c>
       <c r="S68" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T68" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -6938,10 +7373,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/66.png?20210202132624</v>
       </c>
       <c r="S69" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T69" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -6998,10 +7433,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/97.png?20210202132624</v>
       </c>
       <c r="S70" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T70" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -7058,10 +7493,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/83.png?20210202132624</v>
       </c>
       <c r="S71" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T71" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -7118,10 +7553,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/82.png?20210202132624</v>
       </c>
       <c r="S72" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T72" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -7178,10 +7613,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/98.png?20210202132624</v>
       </c>
       <c r="S73" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T73" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -7238,10 +7673,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/70.png?20210202132624</v>
       </c>
       <c r="S74" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T74" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -7298,10 +7733,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/92.png?20210202132624</v>
       </c>
       <c r="S75" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T75" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -7358,10 +7793,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/88.png?20210202132624</v>
       </c>
       <c r="S76" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T76" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -7418,10 +7853,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/69.png?20210202132624</v>
       </c>
       <c r="S77" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T77" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -7478,10 +7913,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/94.png?20210202132624</v>
       </c>
       <c r="S78" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T78" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -7492,7 +7927,7 @@
         <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D79" t="s">
         <v>87</v>
@@ -7538,10 +7973,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/64.png?20210202132624</v>
       </c>
       <c r="S79" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T79" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -7552,7 +7987,7 @@
         <v>188</v>
       </c>
       <c r="C80" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D80" t="s">
         <v>111</v>
@@ -7598,10 +8033,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/91.png?20210202132624</v>
       </c>
       <c r="S80" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T80" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -7658,10 +8093,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/71.png?20210202132624</v>
       </c>
       <c r="S81" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T81" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -7718,10 +8153,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/87.png?20210202132624</v>
       </c>
       <c r="S82" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T82" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -7732,7 +8167,7 @@
         <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D83" t="s">
         <v>195</v>
@@ -7778,10 +8213,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/75.png?20210202132624</v>
       </c>
       <c r="S83" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T83" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -7838,10 +8273,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/77.png?20210202132624</v>
       </c>
       <c r="S84" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T84" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -7898,10 +8333,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/79.png?20210202132624</v>
       </c>
       <c r="S85" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T85" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -7912,7 +8347,7 @@
         <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D86" t="s">
         <v>77</v>
@@ -7958,10 +8393,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/84.png?20210202132624</v>
       </c>
       <c r="S86" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T86" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -7972,7 +8407,7 @@
         <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D87" t="s">
         <v>48</v>
@@ -8018,10 +8453,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/99.png?20210202132624</v>
       </c>
       <c r="S87" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T87" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -8078,10 +8513,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/114.png?20210202132624</v>
       </c>
       <c r="S88" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T88" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -8138,10 +8573,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/93.png?20210202132624</v>
       </c>
       <c r="S89" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T89" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -8198,10 +8633,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/100.png?20210202132624</v>
       </c>
       <c r="S90" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T90" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -8258,10 +8693,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/65.png?20210202132624</v>
       </c>
       <c r="S91" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T91" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -8318,10 +8753,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/96.png?20210202132624</v>
       </c>
       <c r="S92" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T92" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -8378,10 +8813,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/90.png?20210202132624</v>
       </c>
       <c r="S93" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T93" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -8438,10 +8873,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/249.png?20210202132624</v>
       </c>
       <c r="S94" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T94" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -8498,10 +8933,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/102.png?20210202132624</v>
       </c>
       <c r="S95" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T95" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -8558,10 +8993,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/68.png?20210202132624</v>
       </c>
       <c r="S96" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T96" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -8618,10 +9053,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/78.png?20210202132624</v>
       </c>
       <c r="S97" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T97" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -8678,10 +9113,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/101.png?20210202132624</v>
       </c>
       <c r="S98" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T98" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -8692,7 +9127,7 @@
         <v>234</v>
       </c>
       <c r="C99" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D99" t="s">
         <v>80</v>
@@ -8741,10 +9176,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/86.png?20210202132624</v>
       </c>
       <c r="S99" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T99" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -8755,7 +9190,7 @@
         <v>237</v>
       </c>
       <c r="C100" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D100" t="s">
         <v>48</v>
@@ -8801,10 +9236,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/67.png?20210202132624</v>
       </c>
       <c r="S100" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T100" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -8818,7 +9253,7 @@
         <v>239</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>767</v>
       </c>
       <c r="E101" t="s">
         <v>240</v>
@@ -8861,10 +9296,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/129.png?20210202132624</v>
       </c>
       <c r="S101" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T101" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -8878,7 +9313,7 @@
         <v>242</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>768</v>
       </c>
       <c r="E102" t="s">
         <v>243</v>
@@ -8924,10 +9359,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/130.png?20210202132624</v>
       </c>
       <c r="S102" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T102" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -8941,13 +9376,13 @@
         <v>246</v>
       </c>
       <c r="D103" t="s">
+        <v>769</v>
+      </c>
+      <c r="E103" t="s">
         <v>247</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>248</v>
-      </c>
-      <c r="F103" t="s">
-        <v>249</v>
       </c>
       <c r="G103">
         <v>4</v>
@@ -8984,10 +9419,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/275.png?20210202132624</v>
       </c>
       <c r="S103" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T103" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -8995,19 +9430,19 @@
         <v>238</v>
       </c>
       <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
         <v>250</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>770</v>
+      </c>
+      <c r="E104" t="s">
         <v>251</v>
       </c>
-      <c r="D104" t="s">
-        <v>77</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>252</v>
-      </c>
-      <c r="F104" t="s">
-        <v>253</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9044,10 +9479,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/107.png?20210202132624</v>
       </c>
       <c r="S104" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T104" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -9055,16 +9490,16 @@
         <v>238</v>
       </c>
       <c r="B105" t="s">
+        <v>253</v>
+      </c>
+      <c r="C105" t="s">
         <v>254</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>771</v>
+      </c>
+      <c r="E105" t="s">
         <v>255</v>
-      </c>
-      <c r="D105" t="s">
-        <v>256</v>
-      </c>
-      <c r="E105" t="s">
-        <v>257</v>
       </c>
       <c r="F105" t="s">
         <v>19</v>
@@ -9104,10 +9539,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/116.png?20210202132624</v>
       </c>
       <c r="S105" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T105" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -9115,19 +9550,19 @@
         <v>238</v>
       </c>
       <c r="B106" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+      <c r="D106" t="s">
+        <v>772</v>
+      </c>
+      <c r="E106" t="s">
         <v>258</v>
       </c>
-      <c r="C106" t="s">
+      <c r="F106" t="s">
         <v>259</v>
-      </c>
-      <c r="D106" t="s">
-        <v>77</v>
-      </c>
-      <c r="E106" t="s">
-        <v>260</v>
-      </c>
-      <c r="F106" t="s">
-        <v>261</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -9164,10 +9599,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/113.png?20210202132624</v>
       </c>
       <c r="S106" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T106" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -9178,16 +9613,16 @@
         <v>144</v>
       </c>
       <c r="C107" t="s">
+        <v>260</v>
+      </c>
+      <c r="D107" t="s">
+        <v>773</v>
+      </c>
+      <c r="E107" t="s">
+        <v>261</v>
+      </c>
+      <c r="F107" t="s">
         <v>262</v>
-      </c>
-      <c r="D107" t="s">
-        <v>111</v>
-      </c>
-      <c r="E107" t="s">
-        <v>263</v>
-      </c>
-      <c r="F107" t="s">
-        <v>264</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9227,10 +9662,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/125.png?20210202132624</v>
       </c>
       <c r="S107" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T107" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -9241,13 +9676,13 @@
         <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>774</v>
       </c>
       <c r="E108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F108" t="s">
         <v>241</v>
@@ -9287,10 +9722,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/134.png?20210202132624</v>
       </c>
       <c r="S108" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T108" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -9298,13 +9733,13 @@
         <v>238</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
-        <v>247</v>
+        <v>775</v>
       </c>
       <c r="E109" t="s">
         <v>196</v>
@@ -9347,10 +9782,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/119.png?20210202132624</v>
       </c>
       <c r="S109" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T109" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
@@ -9358,16 +9793,16 @@
         <v>238</v>
       </c>
       <c r="B110" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" t="s">
+        <v>776</v>
+      </c>
+      <c r="E110" t="s">
         <v>269</v>
-      </c>
-      <c r="C110" t="s">
-        <v>270</v>
-      </c>
-      <c r="D110" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" t="s">
-        <v>271</v>
       </c>
       <c r="F110" t="s">
         <v>19</v>
@@ -9407,10 +9842,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/123.png?20210202132624</v>
       </c>
       <c r="S110" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T110" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.3">
@@ -9418,16 +9853,16 @@
         <v>238</v>
       </c>
       <c r="B111" t="s">
+        <v>270</v>
+      </c>
+      <c r="C111" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" t="s">
+        <v>777</v>
+      </c>
+      <c r="E111" t="s">
         <v>272</v>
-      </c>
-      <c r="C111" t="s">
-        <v>273</v>
-      </c>
-      <c r="D111" t="s">
-        <v>274</v>
-      </c>
-      <c r="E111" t="s">
-        <v>275</v>
       </c>
       <c r="F111" t="s">
         <v>19</v>
@@ -9470,10 +9905,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/104.png?20210202132624</v>
       </c>
       <c r="S111" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T111" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.3">
@@ -9481,19 +9916,19 @@
         <v>238</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>778</v>
       </c>
       <c r="E112" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G112">
         <v>11</v>
@@ -9530,10 +9965,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/137.png?20210202132624</v>
       </c>
       <c r="S112" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T112" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.3">
@@ -9544,16 +9979,16 @@
         <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>48</v>
+        <v>779</v>
       </c>
       <c r="E113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F113" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -9593,10 +10028,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/103.png?20210202132624</v>
       </c>
       <c r="S113" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T113" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.3">
@@ -9607,16 +10042,16 @@
         <v>162</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>780</v>
       </c>
       <c r="E114" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F114" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G114">
         <v>8</v>
@@ -9653,10 +10088,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/117.png?20210202132624</v>
       </c>
       <c r="S114" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T114" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.3">
@@ -9667,13 +10102,13 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D115" t="s">
-        <v>117</v>
+        <v>781</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -9713,10 +10148,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/120.png?20210202132624</v>
       </c>
       <c r="S115" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T115" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.3">
@@ -9727,13 +10162,13 @@
         <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D116" t="s">
-        <v>48</v>
+        <v>782</v>
       </c>
       <c r="E116" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F116" t="s">
         <v>19</v>
@@ -9773,10 +10208,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/111.png?20210202132624</v>
       </c>
       <c r="S116" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T116" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.3">
@@ -9784,19 +10219,19 @@
         <v>238</v>
       </c>
       <c r="B117" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" t="s">
+        <v>286</v>
+      </c>
+      <c r="D117" t="s">
+        <v>783</v>
+      </c>
+      <c r="E117" t="s">
+        <v>287</v>
+      </c>
+      <c r="F117" t="s">
         <v>288</v>
-      </c>
-      <c r="C117" t="s">
-        <v>289</v>
-      </c>
-      <c r="D117" t="s">
-        <v>51</v>
-      </c>
-      <c r="E117" t="s">
-        <v>290</v>
-      </c>
-      <c r="F117" t="s">
-        <v>291</v>
       </c>
       <c r="G117">
         <v>7</v>
@@ -9833,10 +10268,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/110.png?20210202132624</v>
       </c>
       <c r="S117" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T117" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.3">
@@ -9847,13 +10282,13 @@
         <v>191</v>
       </c>
       <c r="C118" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D118" t="s">
-        <v>117</v>
+        <v>784</v>
       </c>
       <c r="E118" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F118" t="s">
         <v>19</v>
@@ -9893,10 +10328,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/126.png?20210202132624</v>
       </c>
       <c r="S118" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T118" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.3">
@@ -9907,16 +10342,16 @@
         <v>81</v>
       </c>
       <c r="C119" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>785</v>
       </c>
       <c r="E119" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F119" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G119">
         <v>7</v>
@@ -9953,10 +10388,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/106.png?20210202132624</v>
       </c>
       <c r="S119" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T119" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.3">
@@ -9964,16 +10399,16 @@
         <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D120" t="s">
-        <v>80</v>
+        <v>786</v>
       </c>
       <c r="E120" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -10013,10 +10448,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/268.png?20210202132624</v>
       </c>
       <c r="S120" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T120" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.3">
@@ -10024,19 +10459,19 @@
         <v>238</v>
       </c>
       <c r="B121" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C121" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D121" t="s">
-        <v>80</v>
+        <v>787</v>
       </c>
       <c r="E121" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F121" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G121">
         <v>6</v>
@@ -10073,10 +10508,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/131.png?20210202132624</v>
       </c>
       <c r="S121" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T121" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.3">
@@ -10084,19 +10519,19 @@
         <v>238</v>
       </c>
       <c r="B122" t="s">
+        <v>300</v>
+      </c>
+      <c r="C122" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" t="s">
+        <v>788</v>
+      </c>
+      <c r="E122" t="s">
+        <v>302</v>
+      </c>
+      <c r="F122" t="s">
         <v>303</v>
-      </c>
-      <c r="C122" t="s">
-        <v>304</v>
-      </c>
-      <c r="D122" t="s">
-        <v>114</v>
-      </c>
-      <c r="E122" t="s">
-        <v>305</v>
-      </c>
-      <c r="F122" t="s">
-        <v>306</v>
       </c>
       <c r="G122">
         <v>5</v>
@@ -10133,10 +10568,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/109.png?20210202132624</v>
       </c>
       <c r="S122" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T122" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.3">
@@ -10147,16 +10582,16 @@
         <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D123" t="s">
-        <v>51</v>
+        <v>789</v>
       </c>
       <c r="E123" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F123" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G123">
         <v>5</v>
@@ -10193,10 +10628,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/133.png?20210202132624</v>
       </c>
       <c r="S123" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T123" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.3">
@@ -10204,19 +10639,19 @@
         <v>238</v>
       </c>
       <c r="B124" t="s">
+        <v>307</v>
+      </c>
+      <c r="C124" t="s">
+        <v>308</v>
+      </c>
+      <c r="D124" t="s">
+        <v>790</v>
+      </c>
+      <c r="E124" t="s">
+        <v>309</v>
+      </c>
+      <c r="F124" t="s">
         <v>310</v>
-      </c>
-      <c r="C124" t="s">
-        <v>311</v>
-      </c>
-      <c r="D124" t="s">
-        <v>135</v>
-      </c>
-      <c r="E124" t="s">
-        <v>312</v>
-      </c>
-      <c r="F124" t="s">
-        <v>313</v>
       </c>
       <c r="G124">
         <v>4</v>
@@ -10253,10 +10688,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/136.png?20210202132624</v>
       </c>
       <c r="S124" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T124" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.3">
@@ -10264,16 +10699,16 @@
         <v>238</v>
       </c>
       <c r="B125" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C125" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D125" t="s">
-        <v>80</v>
+        <v>791</v>
       </c>
       <c r="E125" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F125" t="s">
         <v>19</v>
@@ -10313,10 +10748,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/132.png?20210202132624</v>
       </c>
       <c r="S125" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T125" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.3">
@@ -10324,16 +10759,16 @@
         <v>238</v>
       </c>
       <c r="B126" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="C126" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
-        <v>318</v>
+        <v>792</v>
       </c>
       <c r="E126" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -10376,10 +10811,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/118.png?20210202132624</v>
       </c>
       <c r="S126" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T126" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.3">
@@ -10390,13 +10825,13 @@
         <v>102</v>
       </c>
       <c r="C127" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D127" t="s">
-        <v>87</v>
+        <v>793</v>
       </c>
       <c r="E127" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -10436,10 +10871,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/105.png?20210202132624</v>
       </c>
       <c r="S127" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T127" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.3">
@@ -10447,19 +10882,19 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D128" t="s">
-        <v>216</v>
+        <v>794</v>
       </c>
       <c r="E128" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F128" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -10496,10 +10931,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/115.png?20210202132624</v>
       </c>
       <c r="S128" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T128" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.3">
@@ -10507,16 +10942,16 @@
         <v>238</v>
       </c>
       <c r="B129" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C129" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D129" t="s">
-        <v>77</v>
+        <v>795</v>
       </c>
       <c r="E129" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F129" t="s">
         <v>19</v>
@@ -10556,10 +10991,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/121.png?20210202132624</v>
       </c>
       <c r="S129" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T129" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.3">
@@ -10567,16 +11002,16 @@
         <v>238</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C130" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D130" t="s">
-        <v>117</v>
+        <v>796</v>
       </c>
       <c r="E130" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F130" t="s">
         <v>19</v>
@@ -10616,10 +11051,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/128.png?20210202132624</v>
       </c>
       <c r="S130" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T130" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.3">
@@ -10627,19 +11062,19 @@
         <v>238</v>
       </c>
       <c r="B131" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C131" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>797</v>
       </c>
       <c r="E131" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F131" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -10676,10 +11111,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/255.png?20210202132624</v>
       </c>
       <c r="S131" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T131" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.3">
@@ -10687,19 +11122,19 @@
         <v>238</v>
       </c>
       <c r="B132" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D132" t="s">
-        <v>114</v>
+        <v>798</v>
       </c>
       <c r="E132" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F132" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G132">
         <v>4</v>
@@ -10736,10 +11171,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/290.png?20210202132624</v>
       </c>
       <c r="S132" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T132" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.3">
@@ -10747,19 +11182,19 @@
         <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C133" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D133" t="s">
-        <v>48</v>
+        <v>799</v>
       </c>
       <c r="E133" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F133" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -10799,10 +11234,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/267.png?20210202132624</v>
       </c>
       <c r="S133" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T133" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.3">
@@ -10813,13 +11248,13 @@
         <v>237</v>
       </c>
       <c r="C134" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D134" t="s">
-        <v>48</v>
+        <v>800</v>
       </c>
       <c r="E134" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F134" t="s">
         <v>19</v>
@@ -10859,10 +11294,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/108.png?20210202132624</v>
       </c>
       <c r="S134" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T134" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.3">
@@ -10870,19 +11305,19 @@
         <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C135" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D135" t="s">
-        <v>48</v>
+        <v>801</v>
       </c>
       <c r="E135" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F135" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G135">
         <v>5</v>
@@ -10919,10 +11354,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/122.png?20210202132624</v>
       </c>
       <c r="S135" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T135" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.3">
@@ -10930,19 +11365,19 @@
         <v>238</v>
       </c>
       <c r="B136" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C136" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D136" t="s">
-        <v>166</v>
+        <v>802</v>
       </c>
       <c r="E136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F136" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -10979,10 +11414,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/112.png?20210202132624</v>
       </c>
       <c r="S136" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T136" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.3">
@@ -10990,16 +11425,16 @@
         <v>238</v>
       </c>
       <c r="B137" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C137" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D137" t="s">
-        <v>111</v>
+        <v>803</v>
       </c>
       <c r="E137" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F137" t="s">
         <v>19</v>
@@ -11039,10 +11474,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/135.png?20210202132624</v>
       </c>
       <c r="S137" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T137" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.3">
@@ -11050,13 +11485,13 @@
         <v>238</v>
       </c>
       <c r="B138" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C138" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>804</v>
       </c>
       <c r="E138" t="s">
         <v>108</v>
@@ -11096,10 +11531,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/.png?20210202132624</v>
       </c>
       <c r="S138" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T138" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.3">
@@ -11107,19 +11542,19 @@
         <v>238</v>
       </c>
       <c r="B139" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C139" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>805</v>
       </c>
       <c r="E139" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F139" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G139">
         <v>9</v>
@@ -11156,30 +11591,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/349.png?20210202132624</v>
       </c>
       <c r="S139" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T139" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C140" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D140" t="s">
-        <v>111</v>
+        <v>806</v>
       </c>
       <c r="E140" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F140" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G140">
         <v>4</v>
@@ -11216,27 +11651,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/156.png?20210202132624</v>
       </c>
       <c r="S140" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T140" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>358</v>
+      </c>
+      <c r="B141" t="s">
         <v>362</v>
       </c>
-      <c r="B141" t="s">
-        <v>366</v>
-      </c>
       <c r="C141" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D141" t="s">
-        <v>117</v>
+        <v>807</v>
       </c>
       <c r="E141" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F141" t="s">
         <v>236</v>
@@ -11269,7 +11704,7 @@
         <v>3</v>
       </c>
       <c r="P141" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q141">
         <v>139</v>
@@ -11279,30 +11714,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/139.png?20210202132624</v>
       </c>
       <c r="S141" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T141" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C142" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D142" t="s">
-        <v>48</v>
+        <v>808</v>
       </c>
       <c r="E142" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F142" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -11339,30 +11774,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/155.png?20210202132624</v>
       </c>
       <c r="S142" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T142" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B143" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C143" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
-        <v>48</v>
+        <v>809</v>
       </c>
       <c r="E143" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F143" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G143">
         <v>7</v>
@@ -11399,27 +11834,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/302.png?20210202132624</v>
       </c>
       <c r="S143" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T143" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
       </c>
       <c r="C144" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D144" t="s">
-        <v>48</v>
+        <v>810</v>
       </c>
       <c r="E144" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F144" t="s">
         <v>19</v>
@@ -11459,30 +11894,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/164.png?20210202132624</v>
       </c>
       <c r="S144" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T144" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B145" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C145" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D145" t="s">
-        <v>51</v>
+        <v>811</v>
       </c>
       <c r="E145" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F145" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G145">
         <v>3</v>
@@ -11512,7 +11947,7 @@
         <v>3</v>
       </c>
       <c r="P145" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q145">
         <v>147</v>
@@ -11522,27 +11957,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/147.png?20210202132624</v>
       </c>
       <c r="S145" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T145" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s">
         <v>172</v>
       </c>
       <c r="C146" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D146" t="s">
-        <v>111</v>
+        <v>812</v>
       </c>
       <c r="E146" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F146" t="s">
         <v>19</v>
@@ -11575,7 +12010,7 @@
         <v>5</v>
       </c>
       <c r="P146" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q146">
         <v>158</v>
@@ -11585,27 +12020,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/158.png?20210202132624</v>
       </c>
       <c r="S146" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T146" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B147" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C147" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D147" t="s">
-        <v>111</v>
+        <v>813</v>
       </c>
       <c r="E147" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F147" t="s">
         <v>19</v>
@@ -11638,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="P147" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q147">
         <v>152</v>
@@ -11648,30 +12083,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/152.png?20210202132624</v>
       </c>
       <c r="S147" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T147" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B148" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C148" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D148" t="s">
-        <v>51</v>
+        <v>814</v>
       </c>
       <c r="E148" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F148" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -11701,7 +12136,7 @@
         <v>4</v>
       </c>
       <c r="P148" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q148">
         <v>146</v>
@@ -11711,30 +12146,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/146.png?20210202132624</v>
       </c>
       <c r="S148" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T148" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B149" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C149" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D149" t="s">
-        <v>135</v>
+        <v>815</v>
       </c>
       <c r="E149" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F149" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G149">
         <v>6</v>
@@ -11771,30 +12206,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/148.png?20210202132624</v>
       </c>
       <c r="S149" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T149" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B150" t="s">
         <v>75</v>
       </c>
       <c r="C150" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D150" t="s">
-        <v>111</v>
+        <v>816</v>
       </c>
       <c r="E150" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F150" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G150">
         <v>5</v>
@@ -11831,30 +12266,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/163.png?20210202132624</v>
       </c>
       <c r="S150" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T150" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B151" t="s">
         <v>185</v>
       </c>
       <c r="C151" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D151" t="s">
-        <v>195</v>
+        <v>817</v>
       </c>
       <c r="E151" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F151" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G151">
         <v>9</v>
@@ -11891,27 +12326,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/160.png?20210202132624</v>
       </c>
       <c r="S151" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T151" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B152" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D152" t="s">
-        <v>48</v>
+        <v>818</v>
       </c>
       <c r="E152" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="F152" t="s">
         <v>19</v>
@@ -11951,27 +12386,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/329.png?20210202132624</v>
       </c>
       <c r="S152" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T152" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B153" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C153" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D153" t="s">
-        <v>256</v>
+        <v>819</v>
       </c>
       <c r="E153" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F153" t="s">
         <v>19</v>
@@ -12011,27 +12446,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/154.png?20210202132624</v>
       </c>
       <c r="S153" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T153" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B154" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C154" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D154" t="s">
-        <v>111</v>
+        <v>820</v>
       </c>
       <c r="E154" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F154" t="s">
         <v>19</v>
@@ -12064,7 +12499,7 @@
         <v>5</v>
       </c>
       <c r="P154" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q154">
         <v>145</v>
@@ -12074,30 +12509,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/145.png?20210202132624</v>
       </c>
       <c r="S154" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T154" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B155" t="s">
         <v>197</v>
       </c>
       <c r="C155" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D155" t="s">
-        <v>51</v>
+        <v>821</v>
       </c>
       <c r="E155" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F155" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G155">
         <v>4</v>
@@ -12134,30 +12569,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/165.png?20210202132624</v>
       </c>
       <c r="S155" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T155" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B156" t="s">
         <v>200</v>
       </c>
       <c r="C156" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D156" t="s">
-        <v>414</v>
+        <v>822</v>
       </c>
       <c r="E156" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F156" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G156">
         <v>7</v>
@@ -12194,30 +12629,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/161.png?20210202132624</v>
       </c>
       <c r="S156" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T156" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B157" t="s">
         <v>207</v>
       </c>
       <c r="C157" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D157" t="s">
-        <v>114</v>
+        <v>823</v>
       </c>
       <c r="E157" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F157" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G157">
         <v>3</v>
@@ -12254,27 +12689,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/149.png?20210202132624</v>
       </c>
       <c r="S157" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T157" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B158" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C158" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D158" t="s">
-        <v>51</v>
+        <v>824</v>
       </c>
       <c r="E158" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F158" t="s">
         <v>19</v>
@@ -12307,7 +12742,7 @@
         <v>2</v>
       </c>
       <c r="P158" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q158">
         <v>253</v>
@@ -12317,30 +12752,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/253.png?20210202132624</v>
       </c>
       <c r="S158" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T158" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B159" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C159" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D159" t="s">
-        <v>114</v>
+        <v>825</v>
       </c>
       <c r="E159" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -12377,30 +12812,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/153.png?20210202132624</v>
       </c>
       <c r="S159" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T159" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C160" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D160" t="s">
-        <v>48</v>
+        <v>826</v>
       </c>
       <c r="E160" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F160" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G160">
         <v>5</v>
@@ -12437,27 +12872,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/348.png?20210202132624</v>
       </c>
       <c r="S160" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T160" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B161" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C161" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D161" t="s">
-        <v>432</v>
+        <v>827</v>
       </c>
       <c r="E161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
         <v>19</v>
@@ -12497,30 +12932,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/150.png?20210202132624</v>
       </c>
       <c r="S161" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T161" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B162" t="s">
         <v>122</v>
       </c>
       <c r="C162" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D162" t="s">
-        <v>111</v>
+        <v>828</v>
       </c>
       <c r="E162" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F162" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -12557,30 +12992,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/166.png?20210202132624</v>
       </c>
       <c r="S162" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T162" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B163" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C163" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D163" t="s">
-        <v>111</v>
+        <v>829</v>
       </c>
       <c r="E163" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F163" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -12610,7 +13045,7 @@
         <v>5</v>
       </c>
       <c r="P163" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q163">
         <v>141</v>
@@ -12620,27 +13055,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/141.png?20210202132624</v>
       </c>
       <c r="S163" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T163" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B164" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C164" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D164" t="s">
-        <v>432</v>
+        <v>830</v>
       </c>
       <c r="E164" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F164" t="s">
         <v>19</v>
@@ -12683,21 +13118,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/151.png?20210202132624</v>
       </c>
       <c r="S164" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T164" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B165" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D165" t="s">
-        <v>51</v>
+        <v>831</v>
       </c>
       <c r="E165" t="s">
         <v>19</v>
@@ -12733,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="P165" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q165">
         <v>168</v>
@@ -12743,21 +13178,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/168.png?20210202132624</v>
       </c>
       <c r="S165" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T165" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B166" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D166" t="s">
-        <v>111</v>
+        <v>832</v>
       </c>
       <c r="E166" t="s">
         <v>206</v>
@@ -12793,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="P166" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="Q166">
         <v>244</v>
@@ -12803,21 +13238,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S166" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T166" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B167" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D167" t="s">
-        <v>48</v>
+        <v>833</v>
       </c>
       <c r="E167" t="s">
         <v>217</v>
@@ -12853,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="P167" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q167">
         <v>244</v>
@@ -12863,24 +13298,24 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S167" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T167" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B168" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D168" t="s">
-        <v>111</v>
+        <v>834</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F168" t="s">
         <v>19</v>
@@ -12913,7 +13348,7 @@
         <v>0</v>
       </c>
       <c r="P168" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="Q168">
         <v>244</v>
@@ -12923,27 +13358,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S168" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T168" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
+        <v>437</v>
+      </c>
+      <c r="B169" t="s">
+        <v>442</v>
+      </c>
+      <c r="D169" t="s">
+        <v>835</v>
+      </c>
+      <c r="E169" t="s">
         <v>443</v>
       </c>
-      <c r="B169" t="s">
-        <v>448</v>
-      </c>
-      <c r="D169" t="s">
-        <v>51</v>
-      </c>
-      <c r="E169" t="s">
-        <v>449</v>
-      </c>
       <c r="F169" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -12973,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="P169" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q169">
         <v>244</v>
@@ -12983,24 +13418,24 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S169" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T169" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B170" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D170" t="s">
-        <v>51</v>
+        <v>836</v>
       </c>
       <c r="E170" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F170" t="s">
         <v>19</v>
@@ -13033,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="P170" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Q170">
         <v>244</v>
@@ -13043,21 +13478,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S170" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T170" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B171" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D171" t="s">
-        <v>111</v>
+        <v>837</v>
       </c>
       <c r="E171" t="s">
         <v>19</v>
@@ -13093,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="P171" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q171">
         <v>244</v>
@@ -13103,21 +13538,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S171" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T171" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B172" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D172" t="s">
-        <v>111</v>
+        <v>838</v>
       </c>
       <c r="E172" t="s">
         <v>193</v>
@@ -13153,7 +13588,7 @@
         <v>0</v>
       </c>
       <c r="P172" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q172">
         <v>244</v>
@@ -13163,24 +13598,24 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S172" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T172" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B173" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D173" t="s">
-        <v>51</v>
+        <v>839</v>
       </c>
       <c r="E173" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F173" t="s">
         <v>236</v>
@@ -13213,7 +13648,7 @@
         <v>0</v>
       </c>
       <c r="P173" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="Q173">
         <v>244</v>
@@ -13223,21 +13658,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S173" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T173" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B174" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>840</v>
       </c>
       <c r="E174" t="s">
         <v>143</v>
@@ -13273,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="P174" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q174">
         <v>244</v>
@@ -13283,27 +13718,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S174" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T174" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B175" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D175" t="s">
-        <v>51</v>
+        <v>841</v>
       </c>
       <c r="E175" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F175" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -13333,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="P175" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q175">
         <v>244</v>
@@ -13343,24 +13778,24 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S175" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T175" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B176" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D176" t="s">
-        <v>51</v>
+        <v>842</v>
       </c>
       <c r="E176" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F176" t="s">
         <v>19</v>
@@ -13393,7 +13828,7 @@
         <v>0</v>
       </c>
       <c r="P176" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q176">
         <v>244</v>
@@ -13403,24 +13838,24 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S176" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T176" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B177" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D177" t="s">
-        <v>111</v>
+        <v>843</v>
       </c>
       <c r="E177" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F177" t="s">
         <v>19</v>
@@ -13453,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="P177" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q177">
         <v>244</v>
@@ -13463,21 +13898,21 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S177" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T177" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B178" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D178" t="s">
-        <v>51</v>
+        <v>836</v>
       </c>
       <c r="E178" t="s">
         <v>139</v>
@@ -13513,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="P178" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q178">
         <v>244</v>
@@ -13523,27 +13958,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S178" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T178" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B179" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D179" t="s">
-        <v>51</v>
+        <v>844</v>
       </c>
       <c r="E179" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F179" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -13573,7 +14008,7 @@
         <v>0</v>
       </c>
       <c r="P179" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q179">
         <v>244</v>
@@ -13583,27 +14018,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/244.png?20210202132624</v>
       </c>
       <c r="S179" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T179" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B180" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C180" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D180" t="s">
-        <v>111</v>
+        <v>845</v>
       </c>
       <c r="E180" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F180" t="s">
         <v>19</v>
@@ -13643,27 +14078,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/170.png?20210202132624</v>
       </c>
       <c r="S180" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T180" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B181" t="s">
         <v>175</v>
       </c>
       <c r="C181" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D181" t="s">
-        <v>111</v>
+        <v>846</v>
       </c>
       <c r="E181" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F181" t="s">
         <v>19</v>
@@ -13703,30 +14138,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/266.png?20210202132624</v>
       </c>
       <c r="S181" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T181" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D182" t="s">
-        <v>51</v>
+        <v>847</v>
       </c>
       <c r="E182" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F182" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -13763,27 +14198,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/173.png?20210202132624</v>
       </c>
       <c r="S182" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T182" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B183" t="s">
         <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D183" t="s">
-        <v>63</v>
+        <v>848</v>
       </c>
       <c r="E183" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F183" t="s">
         <v>236</v>
@@ -13823,27 +14258,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/174.png?20210202132624</v>
       </c>
       <c r="S183" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T183" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B184" t="s">
         <v>220</v>
       </c>
       <c r="C184" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>849</v>
       </c>
       <c r="E184" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F184" t="s">
         <v>19</v>
@@ -13883,27 +14318,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/347.png?20210202132624</v>
       </c>
       <c r="S184" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T184" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B185" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C185" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D185" t="s">
-        <v>48</v>
+        <v>850</v>
       </c>
       <c r="E185" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F185" t="s">
         <v>19</v>
@@ -13936,7 +14371,7 @@
         <v>2</v>
       </c>
       <c r="P185" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q185">
         <v>254</v>
@@ -13946,27 +14381,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/254.png?20210202132624</v>
       </c>
       <c r="S185" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T185" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B186" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C186" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D186" t="s">
-        <v>487</v>
+        <v>851</v>
       </c>
       <c r="E186" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F186" t="s">
         <v>19</v>
@@ -14006,30 +14441,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/214.png?20210202132624</v>
       </c>
       <c r="S186" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T186" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>478</v>
+      </c>
+      <c r="B187" t="s">
+        <v>366</v>
+      </c>
+      <c r="C187" t="s">
+        <v>482</v>
+      </c>
+      <c r="D187" t="s">
+        <v>852</v>
+      </c>
+      <c r="E187" t="s">
+        <v>483</v>
+      </c>
+      <c r="F187" t="s">
         <v>484</v>
-      </c>
-      <c r="B187" t="s">
-        <v>370</v>
-      </c>
-      <c r="C187" t="s">
-        <v>489</v>
-      </c>
-      <c r="D187" t="s">
-        <v>48</v>
-      </c>
-      <c r="E187" t="s">
-        <v>490</v>
-      </c>
-      <c r="F187" t="s">
-        <v>491</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -14066,30 +14501,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/193.png?20210202132624</v>
       </c>
       <c r="S187" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T187" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s">
         <v>65</v>
       </c>
       <c r="C188" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D188" t="s">
-        <v>111</v>
+        <v>853</v>
       </c>
       <c r="E188" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F188" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="G188">
         <v>16</v>
@@ -14126,30 +14561,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/326.png?20210202132624</v>
       </c>
       <c r="S188" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T188" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B189" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C189" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D189" t="s">
-        <v>51</v>
+        <v>854</v>
       </c>
       <c r="E189" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F189" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G189">
         <v>11</v>
@@ -14179,7 +14614,7 @@
         <v>11</v>
       </c>
       <c r="P189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Q189">
         <v>269</v>
@@ -14189,27 +14624,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/269.png?20210202132624</v>
       </c>
       <c r="S189" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T189" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B190" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C190" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D190" t="s">
-        <v>48</v>
+        <v>855</v>
       </c>
       <c r="E190" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F190" t="s">
         <v>19</v>
@@ -14249,30 +14684,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/142.png?20210202132624</v>
       </c>
       <c r="S190" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T190" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B191" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C191" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D191" t="s">
-        <v>111</v>
+        <v>856</v>
       </c>
       <c r="E191" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F191" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="G191">
         <v>9</v>
@@ -14309,30 +14744,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/331.png?20210202132624</v>
       </c>
       <c r="S191" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T191" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B192" t="s">
         <v>92</v>
       </c>
       <c r="C192" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D192" t="s">
-        <v>48</v>
+        <v>857</v>
       </c>
       <c r="E192" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F192" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G192">
         <v>7</v>
@@ -14362,7 +14797,7 @@
         <v>13</v>
       </c>
       <c r="P192" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q192">
         <v>215</v>
@@ -14372,30 +14807,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/215.png?20210202132624</v>
       </c>
       <c r="S192" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T192" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B193" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C193" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D193" t="s">
-        <v>510</v>
+        <v>858</v>
       </c>
       <c r="E193" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F193" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G193">
         <v>7</v>
@@ -14432,30 +14867,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/251.png?20210202132624</v>
       </c>
       <c r="S193" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T193" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B194" t="s">
         <v>118</v>
       </c>
       <c r="C194" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="D194" t="s">
-        <v>114</v>
+        <v>859</v>
       </c>
       <c r="E194" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F194" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G194">
         <v>10</v>
@@ -14492,30 +14927,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/187.png?20210202132624</v>
       </c>
       <c r="S194" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T194" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B195" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C195" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D195" t="s">
-        <v>77</v>
+        <v>860</v>
       </c>
       <c r="E195" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F195" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G195">
         <v>8</v>
@@ -14555,30 +14990,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/291.png?20210202132624</v>
       </c>
       <c r="S195" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T195" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B196" t="s">
         <v>137</v>
       </c>
       <c r="C196" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D196" t="s">
-        <v>114</v>
+        <v>861</v>
       </c>
       <c r="E196" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F196" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G196">
         <v>8</v>
@@ -14608,7 +15043,7 @@
         <v>16</v>
       </c>
       <c r="P196" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q196">
         <v>204</v>
@@ -14618,30 +15053,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/204.png?20210202132624</v>
       </c>
       <c r="S196" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T196" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B197" t="s">
         <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D197" t="s">
-        <v>77</v>
+        <v>862</v>
       </c>
       <c r="E197" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="F197" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G197">
         <v>9</v>
@@ -14671,7 +15106,7 @@
         <v>10</v>
       </c>
       <c r="P197" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q197">
         <v>192</v>
@@ -14681,30 +15116,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/192.png?20210202132624</v>
       </c>
       <c r="S197" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T197" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B198" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C198" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="D198" t="s">
-        <v>111</v>
+        <v>863</v>
       </c>
       <c r="E198" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F198" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G198">
         <v>12</v>
@@ -14734,7 +15169,7 @@
         <v>10</v>
       </c>
       <c r="P198" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q198">
         <v>208</v>
@@ -14744,30 +15179,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/208.png?20210202132624</v>
       </c>
       <c r="S198" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T198" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D199" t="s">
-        <v>111</v>
+        <v>864</v>
       </c>
       <c r="E199" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F199" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G199">
         <v>16</v>
@@ -14797,7 +15232,7 @@
         <v>13</v>
       </c>
       <c r="P199" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q199">
         <v>197</v>
@@ -14807,30 +15242,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/197.png?20210202132624</v>
       </c>
       <c r="S199" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T199" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B200" t="s">
         <v>58</v>
       </c>
       <c r="C200" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D200" t="s">
-        <v>48</v>
+        <v>865</v>
       </c>
       <c r="E200" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F200" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G200">
         <v>14</v>
@@ -14860,7 +15295,7 @@
         <v>13</v>
       </c>
       <c r="P200" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q200">
         <v>206</v>
@@ -14870,30 +15305,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/206.png?20210202132624</v>
       </c>
       <c r="S200" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T200" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B201" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C201" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D201" t="s">
-        <v>111</v>
+        <v>866</v>
       </c>
       <c r="E201" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F201" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G201">
         <v>15</v>
@@ -14923,7 +15358,7 @@
         <v>9</v>
       </c>
       <c r="P201" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q201">
         <v>303</v>
@@ -14933,27 +15368,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/303.png?20210202132624</v>
       </c>
       <c r="S201" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T201" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B202" t="s">
         <v>61</v>
       </c>
       <c r="C202" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D202" t="s">
-        <v>538</v>
+        <v>867</v>
       </c>
       <c r="E202" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F202" t="s">
         <v>19</v>
@@ -14986,7 +15421,7 @@
         <v>11</v>
       </c>
       <c r="P202" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q202">
         <v>250</v>
@@ -14996,30 +15431,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/250.png?20210202132624</v>
       </c>
       <c r="S202" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T202" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B203" t="s">
         <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="D203" t="s">
-        <v>114</v>
+        <v>868</v>
       </c>
       <c r="E203" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F203" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G203">
         <v>15</v>
@@ -15049,7 +15484,7 @@
         <v>8</v>
       </c>
       <c r="P203" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q203">
         <v>189</v>
@@ -15059,30 +15494,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/189.png?20210202132624</v>
       </c>
       <c r="S203" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T203" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B204" t="s">
         <v>69</v>
       </c>
       <c r="C204" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="D204" t="s">
-        <v>51</v>
+        <v>869</v>
       </c>
       <c r="E204" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F204" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G204">
         <v>6</v>
@@ -15112,7 +15547,7 @@
         <v>14</v>
       </c>
       <c r="P204" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q204">
         <v>270</v>
@@ -15122,27 +15557,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/270.png?20210202132624</v>
       </c>
       <c r="S204" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T204" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B205" t="s">
         <v>22</v>
       </c>
       <c r="C205" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="D205" t="s">
-        <v>80</v>
+        <v>870</v>
       </c>
       <c r="E205" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F205" t="s">
         <v>236</v>
@@ -15175,7 +15610,7 @@
         <v>11</v>
       </c>
       <c r="P205" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q205">
         <v>199</v>
@@ -15185,30 +15620,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/199.png?20210202132624</v>
       </c>
       <c r="S205" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T205" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B206" t="s">
         <v>185</v>
       </c>
       <c r="C206" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D206" t="s">
-        <v>114</v>
+        <v>871</v>
       </c>
       <c r="E206" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F206" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="G206">
         <v>22</v>
@@ -15238,7 +15673,7 @@
         <v>6</v>
       </c>
       <c r="P206" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q206">
         <v>216</v>
@@ -15248,30 +15683,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/216.png?20210202132624</v>
       </c>
       <c r="S206" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T206" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B207" t="s">
         <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D207" t="s">
-        <v>247</v>
+        <v>872</v>
       </c>
       <c r="E207" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F207" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="G207">
         <v>5</v>
@@ -15301,7 +15736,7 @@
         <v>5</v>
       </c>
       <c r="P207" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q207">
         <v>190</v>
@@ -15311,30 +15746,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/190.png?20210202132624</v>
       </c>
       <c r="S207" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T207" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B208" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C208" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D208" t="s">
-        <v>114</v>
+        <v>873</v>
       </c>
       <c r="E208" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="F208" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="G208">
         <v>8</v>
@@ -15364,7 +15799,7 @@
         <v>5</v>
       </c>
       <c r="P208" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="Q208">
         <v>324</v>
@@ -15374,30 +15809,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/324.png?20210202132624</v>
       </c>
       <c r="S208" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T208" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B209" t="s">
         <v>188</v>
       </c>
       <c r="C209" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D209" t="s">
-        <v>117</v>
+        <v>874</v>
       </c>
       <c r="E209" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F209" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G209">
         <v>13</v>
@@ -15427,7 +15862,7 @@
         <v>11</v>
       </c>
       <c r="P209" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q209">
         <v>205</v>
@@ -15437,27 +15872,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/205.png?20210202132624</v>
       </c>
       <c r="S209" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T209" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B210" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="C210" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D210" t="s">
-        <v>111</v>
+        <v>875</v>
       </c>
       <c r="E210" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F210" t="s">
         <v>19</v>
@@ -15490,7 +15925,7 @@
         <v>4</v>
       </c>
       <c r="P210" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="Q210">
         <v>273</v>
@@ -15500,27 +15935,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/273.png?20210202132624</v>
       </c>
       <c r="S210" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T210" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B211" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="C211" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D211" t="s">
-        <v>111</v>
+        <v>876</v>
       </c>
       <c r="E211" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F211" t="s">
         <v>19</v>
@@ -15553,7 +15988,7 @@
         <v>10</v>
       </c>
       <c r="P211" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="Q211">
         <v>200</v>
@@ -15563,30 +15998,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/200.png?20210202132624</v>
       </c>
       <c r="S211" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T211" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s">
         <v>197</v>
       </c>
       <c r="C212" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D212" t="s">
-        <v>80</v>
+        <v>877</v>
       </c>
       <c r="E212" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F212" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G212">
         <v>10</v>
@@ -15616,7 +16051,7 @@
         <v>8</v>
       </c>
       <c r="P212" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q212">
         <v>202</v>
@@ -15626,30 +16061,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/202.png?20210202132624</v>
       </c>
       <c r="S212" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T212" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B213" t="s">
         <v>200</v>
       </c>
       <c r="C213" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D213" t="s">
-        <v>572</v>
+        <v>878</v>
       </c>
       <c r="E213" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F213" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G213">
         <v>19</v>
@@ -15679,7 +16114,7 @@
         <v>9</v>
       </c>
       <c r="P213" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q213">
         <v>201</v>
@@ -15689,30 +16124,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/201.png?20210202132624</v>
       </c>
       <c r="S213" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T213" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B214" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C214" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D214" t="s">
-        <v>114</v>
+        <v>879</v>
       </c>
       <c r="E214" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F214" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G214">
         <v>13</v>
@@ -15742,7 +16177,7 @@
         <v>9</v>
       </c>
       <c r="P214" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="Q214">
         <v>299</v>
@@ -15752,30 +16187,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/299.png?20210202132624</v>
       </c>
       <c r="S214" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T214" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B215" t="s">
         <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D215" t="s">
-        <v>111</v>
+        <v>880</v>
       </c>
       <c r="E215" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G215">
         <v>4</v>
@@ -15805,7 +16240,7 @@
         <v>10</v>
       </c>
       <c r="P215" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q215">
         <v>195</v>
@@ -15815,30 +16250,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/195.png?20210202132624</v>
       </c>
       <c r="S215" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T215" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="D216" t="s">
-        <v>48</v>
+        <v>881</v>
       </c>
       <c r="E216" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F216" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G216">
         <v>8</v>
@@ -15868,7 +16303,7 @@
         <v>14</v>
       </c>
       <c r="P216" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q216">
         <v>191</v>
@@ -15878,30 +16313,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/191.png?20210202132624</v>
       </c>
       <c r="S216" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T216" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B217" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C217" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D217" t="s">
-        <v>48</v>
+        <v>882</v>
       </c>
       <c r="E217" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F217" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G217">
         <v>8</v>
@@ -15931,7 +16366,7 @@
         <v>17</v>
       </c>
       <c r="P217" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q217">
         <v>321</v>
@@ -15941,30 +16376,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/321.png?20210202132624</v>
       </c>
       <c r="S217" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T217" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B218" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C218" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D218" t="s">
-        <v>80</v>
+        <v>883</v>
       </c>
       <c r="E218" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="F218" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G218">
         <v>8</v>
@@ -15994,7 +16429,7 @@
         <v>17</v>
       </c>
       <c r="P218" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q218">
         <v>323</v>
@@ -16004,30 +16439,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/323.png?20210202132624</v>
       </c>
       <c r="S218" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T218" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B219" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C219" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D219" t="s">
-        <v>111</v>
+        <v>884</v>
       </c>
       <c r="E219" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="F219" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="G219">
         <v>11</v>
@@ -16057,7 +16492,7 @@
         <v>14</v>
       </c>
       <c r="P219" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q219">
         <v>330</v>
@@ -16067,30 +16502,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/330.png?20210202132624</v>
       </c>
       <c r="S219" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T219" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B220" t="s">
         <v>102</v>
       </c>
       <c r="C220" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="D220" t="s">
-        <v>597</v>
+        <v>885</v>
       </c>
       <c r="E220" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="F220" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="G220">
         <v>16</v>
@@ -16120,7 +16555,7 @@
         <v>11</v>
       </c>
       <c r="P220" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q220">
         <v>272</v>
@@ -16130,10 +16565,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/272.png?20210202132624</v>
       </c>
       <c r="S220" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T220" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="221" spans="1:20" x14ac:dyDescent="0.3">
@@ -16141,7 +16576,10 @@
         <v>16</v>
       </c>
       <c r="B221" t="s">
-        <v>600</v>
+        <v>589</v>
+      </c>
+      <c r="D221" t="s">
+        <v>886</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -16171,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="P221" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="Q221">
         <v>188</v>
@@ -16181,30 +16619,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/188.png?20210202132624</v>
       </c>
       <c r="S221" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T221" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B222" t="s">
         <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D222" t="s">
-        <v>80</v>
+        <v>887</v>
       </c>
       <c r="E222" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="F222" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="G222">
         <v>9</v>
@@ -16234,7 +16672,7 @@
         <v>10</v>
       </c>
       <c r="P222" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q222">
         <v>196</v>
@@ -16244,27 +16682,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/196.png?20210202132624</v>
       </c>
       <c r="S222" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T222" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B223" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C223" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D223" t="s">
-        <v>256</v>
+        <v>888</v>
       </c>
       <c r="E223" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F223" t="s">
         <v>19</v>
@@ -16297,7 +16735,7 @@
         <v>14</v>
       </c>
       <c r="P223" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q223">
         <v>350</v>
@@ -16307,30 +16745,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/350.png?20210202132624</v>
       </c>
       <c r="S223" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T223" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B224" t="s">
         <v>120</v>
       </c>
       <c r="C224" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D224" t="s">
-        <v>111</v>
+        <v>889</v>
       </c>
       <c r="E224" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="F224" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G224">
         <v>12</v>
@@ -16360,7 +16798,7 @@
         <v>7</v>
       </c>
       <c r="P224" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q224">
         <v>292</v>
@@ -16370,27 +16808,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/292.png?20210202132624</v>
       </c>
       <c r="S224" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T224" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B225" t="s">
         <v>229</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D225" t="s">
-        <v>63</v>
+        <v>890</v>
       </c>
       <c r="E225" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F225" t="s">
         <v>19</v>
@@ -16423,7 +16861,7 @@
         <v>12</v>
       </c>
       <c r="P225" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="Q225">
         <v>203</v>
@@ -16433,30 +16871,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/203.png?20210202132624</v>
       </c>
       <c r="S225" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T225" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B226" t="s">
         <v>35</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="D226" t="s">
-        <v>487</v>
+        <v>891</v>
       </c>
       <c r="E226" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="F226" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G226">
         <v>9</v>
@@ -16486,7 +16924,7 @@
         <v>17</v>
       </c>
       <c r="P226" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q226">
         <v>209</v>
@@ -16496,27 +16934,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/209.png?20210202132624</v>
       </c>
       <c r="S226" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T226" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B227" t="s">
         <v>39</v>
       </c>
       <c r="C227" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D227" t="s">
-        <v>51</v>
+        <v>814</v>
       </c>
       <c r="E227" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="F227" t="s">
         <v>19</v>
@@ -16549,7 +16987,7 @@
         <v>12</v>
       </c>
       <c r="P227" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q227">
         <v>198</v>
@@ -16559,30 +16997,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/198.png?20210202132624</v>
       </c>
       <c r="S227" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T227" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B228" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C228" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>892</v>
       </c>
       <c r="E228" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F228" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G228">
         <v>9</v>
@@ -16612,7 +17050,7 @@
         <v>16</v>
       </c>
       <c r="P228" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q228">
         <v>207</v>
@@ -16622,30 +17060,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/207.png?20210202132624</v>
       </c>
       <c r="S228" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T228" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B229" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C229" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D229" t="s">
-        <v>51</v>
+        <v>893</v>
       </c>
       <c r="E229" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="F229" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="G229">
         <v>17</v>
@@ -16675,7 +17113,7 @@
         <v>8</v>
       </c>
       <c r="P229" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="Q229">
         <v>339</v>
@@ -16685,30 +17123,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/339.png?20210202132624</v>
       </c>
       <c r="S229" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T229" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B230" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C230" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D230" t="s">
-        <v>274</v>
+        <v>894</v>
       </c>
       <c r="E230" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F230" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G230">
         <v>6</v>
@@ -16738,7 +17176,7 @@
         <v>16</v>
       </c>
       <c r="P230" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="Q230">
         <v>284</v>
@@ -16748,27 +17186,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/284.png?20210202132624</v>
       </c>
       <c r="S230" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T230" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>606</v>
+      </c>
+      <c r="B231" t="s">
         <v>617</v>
       </c>
-      <c r="B231" t="s">
-        <v>628</v>
-      </c>
       <c r="C231" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D231" t="s">
-        <v>48</v>
+        <v>895</v>
       </c>
       <c r="E231" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="F231" t="s">
         <v>19</v>
@@ -16801,7 +17239,7 @@
         <v>8</v>
       </c>
       <c r="P231" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="Q231">
         <v>283</v>
@@ -16811,30 +17249,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/283.png?20210202132624</v>
       </c>
       <c r="S231" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T231" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B232" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C232" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D232" t="s">
-        <v>111</v>
+        <v>845</v>
       </c>
       <c r="E232" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="F232" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="G232">
         <v>5</v>
@@ -16864,7 +17302,7 @@
         <v>14</v>
       </c>
       <c r="P232" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="Q232">
         <v>298</v>
@@ -16874,27 +17312,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/298.png?20210202132624</v>
       </c>
       <c r="S232" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T232" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B233" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C233" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="D233" t="s">
-        <v>256</v>
+        <v>896</v>
       </c>
       <c r="E233" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="F233" t="s">
         <v>19</v>
@@ -16927,7 +17365,7 @@
         <v>13</v>
       </c>
       <c r="P233" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="Q233">
         <v>282</v>
@@ -16937,30 +17375,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/282.png?20210202132624</v>
       </c>
       <c r="S233" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T233" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B234" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C234" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="D234" t="s">
-        <v>48</v>
+        <v>897</v>
       </c>
       <c r="E234" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="F234" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="G234">
         <v>4</v>
@@ -16990,7 +17428,7 @@
         <v>10</v>
       </c>
       <c r="P234" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q234">
         <v>341</v>
@@ -17000,27 +17438,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/341.png?20210202132624</v>
       </c>
       <c r="S234" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T234" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B235" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C235" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D235" t="s">
-        <v>51</v>
+        <v>824</v>
       </c>
       <c r="E235" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="F235" t="s">
         <v>19</v>
@@ -17053,7 +17491,7 @@
         <v>5</v>
       </c>
       <c r="P235" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="Q235">
         <v>289</v>
@@ -17063,30 +17501,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/289.png?20210202132624</v>
       </c>
       <c r="S235" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T235" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B236" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C236" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="D236" t="s">
-        <v>432</v>
+        <v>898</v>
       </c>
       <c r="E236" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F236" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="G236">
         <v>7</v>
@@ -17116,7 +17554,7 @@
         <v>2</v>
       </c>
       <c r="P236" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q236">
         <v>340</v>
@@ -17126,30 +17564,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/340.png?20210202132624</v>
       </c>
       <c r="S236" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T236" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B237" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C237" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="D237" t="s">
-        <v>80</v>
+        <v>899</v>
       </c>
       <c r="E237" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="F237" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="G237">
         <v>12</v>
@@ -17179,7 +17617,7 @@
         <v>4</v>
       </c>
       <c r="P237" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="Q237">
         <v>285</v>
@@ -17189,30 +17627,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/285.png?20210202132624</v>
       </c>
       <c r="S237" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T237" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B238" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C238" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="D238" t="s">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="E238" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="F238" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G238">
         <v>9</v>
@@ -17242,7 +17680,7 @@
         <v>12</v>
       </c>
       <c r="P238" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="Q238">
         <v>279</v>
@@ -17252,30 +17690,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/279.png?20210202132624</v>
       </c>
       <c r="S238" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T238" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B239" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C239" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="D239" t="s">
-        <v>48</v>
+        <v>901</v>
       </c>
       <c r="E239" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="F239" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G239">
         <v>12</v>
@@ -17305,7 +17743,7 @@
         <v>14</v>
       </c>
       <c r="P239" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q239">
         <v>300</v>
@@ -17315,30 +17753,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/300.png?20210202132624</v>
       </c>
       <c r="S239" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T239" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="B240" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C240" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="D240" t="s">
-        <v>48</v>
+        <v>902</v>
       </c>
       <c r="E240" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="F240" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G240">
         <v>7</v>
@@ -17368,7 +17806,7 @@
         <v>4</v>
       </c>
       <c r="P240" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q240">
         <v>288</v>
@@ -17378,27 +17816,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/288.png?20210202132624</v>
       </c>
       <c r="S240" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T240" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B241" t="s">
         <v>134</v>
       </c>
       <c r="C241" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="D241" t="s">
-        <v>131</v>
+        <v>903</v>
       </c>
       <c r="E241" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="F241" t="s">
         <v>19</v>
@@ -17438,27 +17876,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/182.png?20210202132624</v>
       </c>
       <c r="S241" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T241" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C242" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="D242" t="s">
-        <v>216</v>
+        <v>904</v>
       </c>
       <c r="E242" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F242" t="s">
         <v>19</v>
@@ -17498,30 +17936,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/183.png?20210202132624</v>
       </c>
       <c r="S242" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T242" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B243" t="s">
         <v>144</v>
       </c>
       <c r="C243" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D243" t="s">
-        <v>80</v>
+        <v>905</v>
       </c>
       <c r="E243" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="F243" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="G243">
         <v>16</v>
@@ -17551,7 +17989,7 @@
         <v>10</v>
       </c>
       <c r="P243" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="Q243">
         <v>176</v>
@@ -17561,30 +17999,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/176.png?20210202132624</v>
       </c>
       <c r="S243" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T243" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
+        <v>654</v>
+      </c>
+      <c r="B244" t="s">
+        <v>663</v>
+      </c>
+      <c r="C244" t="s">
+        <v>664</v>
+      </c>
+      <c r="D244" t="s">
+        <v>906</v>
+      </c>
+      <c r="E244" t="s">
         <v>665</v>
       </c>
-      <c r="B244" t="s">
-        <v>674</v>
-      </c>
-      <c r="C244" t="s">
-        <v>675</v>
-      </c>
-      <c r="D244" t="s">
-        <v>111</v>
-      </c>
-      <c r="E244" t="s">
-        <v>676</v>
-      </c>
       <c r="F244" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="G244">
         <v>19</v>
@@ -17621,30 +18059,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/177.png?20210202132624</v>
       </c>
       <c r="S244" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T244" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B245" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C245" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="D245" t="s">
-        <v>195</v>
+        <v>907</v>
       </c>
       <c r="E245" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="F245" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="G245">
         <v>16</v>
@@ -17681,27 +18119,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/211.png?20210202132624</v>
       </c>
       <c r="S245" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T245" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B246" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C246" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D246" t="s">
-        <v>48</v>
+        <v>908</v>
       </c>
       <c r="E246" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="F246" t="s">
         <v>19</v>
@@ -17741,30 +18179,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/179.png?20210202132624</v>
       </c>
       <c r="S246" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T246" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B247" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C247" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="D247" t="s">
-        <v>685</v>
+        <v>909</v>
       </c>
       <c r="E247" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F247" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="G247">
         <v>15</v>
@@ -17804,30 +18242,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/178.png?20210202132624</v>
       </c>
       <c r="S247" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T247" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B248" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C248" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="D248" t="s">
-        <v>48</v>
+        <v>910</v>
       </c>
       <c r="E248" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="F248" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="G248">
         <v>10</v>
@@ -17864,30 +18302,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/175.png?20210202132624</v>
       </c>
       <c r="S248" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T248" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B249" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C249" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="D249" t="s">
-        <v>77</v>
+        <v>911</v>
       </c>
       <c r="E249" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="F249" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="G249">
         <v>14</v>
@@ -17924,30 +18362,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/181.png?20210202132624</v>
       </c>
       <c r="S249" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T249" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B250" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="C250" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="D250" t="s">
-        <v>114</v>
+        <v>912</v>
       </c>
       <c r="E250" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="F250" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="G250">
         <v>12</v>
@@ -17987,30 +18425,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/257.png?20210202132624</v>
       </c>
       <c r="S250" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T250" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B251" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C251" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="D251" t="s">
-        <v>166</v>
+        <v>913</v>
       </c>
       <c r="E251" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="F251" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="G251">
         <v>23</v>
@@ -18047,30 +18485,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/180.png?20210202132624</v>
       </c>
       <c r="S251" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T251" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B252" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="C252" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="D252" t="s">
-        <v>111</v>
+        <v>816</v>
       </c>
       <c r="E252" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F252" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="G252">
         <v>23</v>
@@ -18100,7 +18538,7 @@
         <v>13</v>
       </c>
       <c r="P252" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q252">
         <v>305</v>
@@ -18110,30 +18548,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/305.png?20210202132624</v>
       </c>
       <c r="S252" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T252" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B253" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="C253" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="D253" t="s">
-        <v>111</v>
+        <v>914</v>
       </c>
       <c r="E253" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="F253" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="G253">
         <v>24</v>
@@ -18163,7 +18601,7 @@
         <v>9</v>
       </c>
       <c r="P253" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="Q253">
         <v>306</v>
@@ -18173,27 +18611,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/306.png?20210202132624</v>
       </c>
       <c r="S253" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T253" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B254" t="s">
         <v>149</v>
       </c>
       <c r="C254" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="D254" t="s">
-        <v>117</v>
+        <v>915</v>
       </c>
       <c r="E254" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
       <c r="F254" t="s">
         <v>19</v>
@@ -18233,30 +18671,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/346.png?20210202132624</v>
       </c>
       <c r="S254" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T254" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B255" t="s">
         <v>159</v>
       </c>
       <c r="C255" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="D255" t="s">
-        <v>111</v>
+        <v>916</v>
       </c>
       <c r="E255" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G255">
         <v>7</v>
@@ -18286,7 +18724,7 @@
         <v>17</v>
       </c>
       <c r="P255" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="Q255">
         <v>221</v>
@@ -18296,30 +18734,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/221.png?20210202132624</v>
       </c>
       <c r="S255" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T255" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B256" t="s">
         <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="D256" t="s">
-        <v>48</v>
+        <v>917</v>
       </c>
       <c r="E256" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="F256" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="G256">
         <v>11</v>
@@ -18349,7 +18787,7 @@
         <v>8</v>
       </c>
       <c r="P256" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q256">
         <v>219</v>
@@ -18359,27 +18797,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/219.png?20210202132624</v>
       </c>
       <c r="S256" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T256" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B257" t="s">
         <v>183</v>
       </c>
       <c r="C257" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D257" t="s">
-        <v>51</v>
+        <v>918</v>
       </c>
       <c r="E257" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F257" t="s">
         <v>19</v>
@@ -18419,30 +18857,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/218.png?20210202132624</v>
       </c>
       <c r="S257" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T257" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B258" t="s">
         <v>27</v>
       </c>
       <c r="C258" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="D258" t="s">
-        <v>117</v>
+        <v>919</v>
       </c>
       <c r="E258" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="F258" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G258">
         <v>18</v>
@@ -18479,27 +18917,27 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/217.png?20210202132624</v>
       </c>
       <c r="S258" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T258" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B259" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C259" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D259" t="s">
-        <v>77</v>
+        <v>920</v>
       </c>
       <c r="E259" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="F259" t="s">
         <v>19</v>
@@ -18542,30 +18980,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/276.png?20210202132624</v>
       </c>
       <c r="S259" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T259" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B260" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="C260" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="D260" t="s">
-        <v>51</v>
+        <v>921</v>
       </c>
       <c r="E260" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F260" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="G260">
         <v>15</v>
@@ -18595,7 +19033,7 @@
         <v>6</v>
       </c>
       <c r="P260" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="Q260">
         <v>308</v>
@@ -18605,30 +19043,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/308.png?20210202132624</v>
       </c>
       <c r="S260" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T260" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B261" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="C261" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D261" t="s">
-        <v>256</v>
+        <v>922</v>
       </c>
       <c r="E261" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F261" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="G261">
         <v>8</v>
@@ -18665,30 +19103,30 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/220.png?20210202132624</v>
       </c>
       <c r="S261" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T261" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B262" t="s">
         <v>237</v>
       </c>
       <c r="C262" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="D262" t="s">
-        <v>114</v>
+        <v>923</v>
       </c>
       <c r="E262" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F262" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="G262">
         <v>22</v>
@@ -18728,10 +19166,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/222.png?20210202132624</v>
       </c>
       <c r="S262" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T262" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="263" spans="1:20" x14ac:dyDescent="0.3">
@@ -18739,16 +19177,16 @@
         <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="C263" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D263" t="s">
         <v>19</v>
       </c>
       <c r="E263" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="F263" t="s">
         <v>19</v>
@@ -18781,7 +19219,7 @@
         <v>0</v>
       </c>
       <c r="P263" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="Q263">
         <v>325</v>
@@ -18791,10 +19229,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/325.png?20210202132624</v>
       </c>
       <c r="S263" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T263" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="264" spans="1:20" x14ac:dyDescent="0.3">
@@ -18802,16 +19240,16 @@
         <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="C264" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D264" t="s">
         <v>19</v>
       </c>
       <c r="E264" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="F264" t="s">
         <v>84</v>
@@ -18844,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="P264" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="Q264">
         <v>322</v>
@@ -18854,10 +19292,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/322.png?20210202132624</v>
       </c>
       <c r="S264" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T264" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="265" spans="1:20" x14ac:dyDescent="0.3">
@@ -18865,7 +19303,7 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="C265" t="s">
         <v>60</v>
@@ -18907,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="P265" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="Q265">
         <v>307</v>
@@ -18917,10 +19355,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/307.png?20210202132624</v>
       </c>
       <c r="S265" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T265" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="266" spans="1:20" x14ac:dyDescent="0.3">
@@ -18928,7 +19366,7 @@
         <v>16</v>
       </c>
       <c r="B266" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="C266" t="s">
         <v>108</v>
@@ -18970,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="P266" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="Q266">
         <v>304</v>
@@ -18980,10 +19418,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/304.png?20210202132624</v>
       </c>
       <c r="S266" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T266" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="267" spans="1:20" x14ac:dyDescent="0.3">
@@ -18991,7 +19429,7 @@
         <v>129</v>
       </c>
       <c r="B267" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="D267" t="s">
         <v>19</v>
@@ -19030,7 +19468,7 @@
         <v>0</v>
       </c>
       <c r="P267" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="Q267">
         <v>31</v>
@@ -19040,18 +19478,18 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/31.png?20210202132624</v>
       </c>
       <c r="S267" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T267" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B268" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D268" t="s">
         <v>19</v>
@@ -19090,7 +19528,7 @@
         <v>0</v>
       </c>
       <c r="P268" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="Q268">
         <v>188</v>
@@ -19100,10 +19538,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/188.png?20210202132624</v>
       </c>
       <c r="S268" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T268" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:20" x14ac:dyDescent="0.3">
@@ -19111,7 +19549,7 @@
         <v>16</v>
       </c>
       <c r="B269" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="D269" t="s">
         <v>19</v>
@@ -19150,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="P269" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="Q269">
         <v>287</v>
@@ -19160,10 +19598,10 @@
         <v>https://ordsearch.speedgabia.com/images/units/ord/icons/287.png?20210202132624</v>
       </c>
       <c r="S269" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="T269" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
